--- a/Methane_Multi_Class_Models/Multi-Class_Quantification_Models/Test_Documentation.xlsx
+++ b/Methane_Multi_Class_Models/Multi-Class_Quantification_Models/Test_Documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jberr\_Projects\Squishy_Robots_Quantification_Models\repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jberr\_Projects\Squishy_Robots_BEST_repo\Methane_Multi_Class_Models\Multi-Class_Quantification_Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D473677C-AA0B-4736-9991-5F7489D581F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A9C83-DEB8-4AEB-A0B9-9ED5C410CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F703D214-DBE8-48B6-A197-E633F42D3F9D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Trial</t>
   </si>
@@ -61,6 +61,12 @@
 [I 2025-10-29 22:19:27,815] Trial 1 finished with value: 0.3305294942305618 and parameters: {'lr': 1.2660589242067724e-05, 'optimizer': 'Adam', 'weight_decay': 0.005883228583301706, 'hidden_size': 159, 'batch_size': 128, 'num_epochs': 11}. Best is trial 1 with value: 0.3305294942305618.
 Validation Acc: 0.3305
 ==================================================</t>
+  </si>
+  <si>
+    <t>Dropping the classes from 8 to 5 increased performance up to 50% validation accuracy with some combinations of the parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding standard image transforms to the 8 class model increased validation accuracy up to 75%. Testing on the 5 class model. </t>
   </si>
 </sst>
 </file>
@@ -544,7 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -553,6 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AB1204-87C2-4864-A3A0-566242F941F7}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:V4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,6 +1067,28 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45972</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45972</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:V2"/>
